--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Kosmos/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1074</v>
       </c>
       <c r="C2" t="n">
-        <v>8.100558659217876</v>
+        <v>1051</v>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.121042830540038</v>
+      </c>
+      <c r="G2" t="n">
         <v>151</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.622516556291391</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>146</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>148</v>
       </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.973509933774835</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.649006622516556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>96.68874172185431</v>
+      </c>
+      <c r="P2" t="n">
+        <v>98.01324503311258</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.9932432432432432</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.9735099337748344</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.9832775919732442</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>97.47751213090771</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>89.02163897548614</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>1275</v>
       </c>
       <c r="C3" t="n">
-        <v>4.156862745098039</v>
+        <v>1270</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.137254901960784</v>
+      </c>
+      <c r="G3" t="n">
         <v>154</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.948051948051948</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>151</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>153</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.298701298701299</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
+        <v>98.05194805194806</v>
+      </c>
+      <c r="P3" t="n">
+        <v>99.35064935064936</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.9805194805194806</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9901639344262295</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>96.62193937716648</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>96.04713616055625</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>2048</v>
       </c>
       <c r="C4" t="n">
-        <v>6.201171875</v>
+        <v>1992</v>
       </c>
       <c r="D4" t="n">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
+        <v>77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.494140625</v>
+      </c>
+      <c r="G4" t="n">
         <v>324</v>
       </c>
-      <c r="F4" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>282</v>
       </c>
-      <c r="H4" t="n">
-        <v>305</v>
-      </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
+        <v>9.876543209876543</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.641975308641975</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>87.03703703703704</v>
+      </c>
+      <c r="P4" t="n">
+        <v>88.27160493827161</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.941358024691358</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.9697933227344993</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>95.03532779343597</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>74.40705961495033</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>357</v>
       </c>
       <c r="C5" t="n">
-        <v>10.08403361344538</v>
+        <v>356</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.803921568627452</v>
+      </c>
+      <c r="G5" t="n">
         <v>42</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>4.761904761904762</v>
       </c>
-      <c r="G5" t="n">
-        <v>40</v>
-      </c>
-      <c r="H5" t="n">
-        <v>42</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>2.380952380952381</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>95.23809523809523</v>
+      </c>
+      <c r="P5" t="n">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.9761904761904762</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.9879518072289156</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>92.85953495812534</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>89.31440071693292</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1369</v>
       </c>
       <c r="C6" t="n">
-        <v>9.422936449963478</v>
+        <v>1263</v>
       </c>
       <c r="D6" t="n">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
+        <v>32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.08035062089116</v>
+      </c>
+      <c r="G6" t="n">
         <v>184</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>180</v>
+      </c>
+      <c r="I6" t="n">
+        <v>181</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.717391304347826</v>
       </c>
-      <c r="G6" t="n">
-        <v>180</v>
-      </c>
-      <c r="H6" t="n">
-        <v>181</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>2.173913043478261</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>97.82608695652173</v>
+      </c>
+      <c r="P6" t="n">
+        <v>98.36956521739131</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.9836956521739131</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.9917808219178083</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>98.83413262200202</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>95.31563424389861</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>755</v>
       </c>
       <c r="C7" t="n">
-        <v>2.251655629139073</v>
+        <v>754</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.85430463576159</v>
+      </c>
+      <c r="G7" t="n">
         <v>104</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>103</v>
+      </c>
+      <c r="I7" t="n">
+        <v>104</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="G7" t="n">
-        <v>103</v>
-      </c>
-      <c r="H7" t="n">
-        <v>104</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>99.03846153846155</v>
+      </c>
+      <c r="P7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.9903846153846154</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.9951690821256038</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>98.72538929747769</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>97.54238144468999</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1135</v>
       </c>
       <c r="C8" t="n">
-        <v>11.18942731277533</v>
+        <v>1058</v>
       </c>
       <c r="D8" t="n">
+        <v>77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.71806167400881</v>
+      </c>
+      <c r="G8" t="n">
         <v>127</v>
       </c>
-      <c r="E8" t="n">
-        <v>127</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.937007874015748</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>124</v>
       </c>
-      <c r="H8" t="n">
-        <v>127</v>
-      </c>
       <c r="I8" t="n">
+        <v>124</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>2.362204724409449</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.362204724409449</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>97.63779527559055</v>
+      </c>
+      <c r="P8" t="n">
+        <v>97.63779527559055</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.9844961240310077</v>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.9921875</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>99.55449238256536</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>91.27072754997815</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1071</v>
       </c>
       <c r="C9" t="n">
-        <v>11.29785247432306</v>
+        <v>1051</v>
       </c>
       <c r="D9" t="n">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
+        <v>86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.897292250233427</v>
+      </c>
+      <c r="G9" t="n">
         <v>127</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.937007874015748</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>126</v>
       </c>
-      <c r="H9" t="n">
-        <v>127</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.7874015748031495</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.7874015748031495</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>99.21259842519686</v>
+      </c>
+      <c r="P9" t="n">
+        <v>99.21259842519686</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
         <v>99.33460187383689</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>94.53257561921188</v>
       </c>
     </row>

--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Kosmos/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,139 +436,142 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1074</v>
       </c>
       <c r="B2" t="n">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="C2" t="n">
-        <v>1051</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>0.0493</v>
       </c>
       <c r="F2" t="n">
-        <v>5.121042830540038</v>
+        <v>151</v>
       </c>
       <c r="G2" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H2" t="n">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -577,503 +580,529 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.973509933774835</v>
+        <v>0.053</v>
       </c>
       <c r="M2" t="n">
-        <v>2.649006622516556</v>
+        <v>0.0265</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0.9735</v>
       </c>
       <c r="O2" t="n">
-        <v>96.68874172185431</v>
+        <v>0.9866</v>
       </c>
       <c r="P2" t="n">
-        <v>98.01324503311258</v>
+        <v>0.9735</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9932432432432432</v>
+        <v>0.9866</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9735099337748344</v>
+        <v>0.9735</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9832775919732442</v>
+        <v>0.9866</v>
       </c>
       <c r="T2" t="n">
-        <v>97.47751213090771</v>
+        <v>0.9748</v>
       </c>
       <c r="U2" t="n">
-        <v>89.02163897548614</v>
+        <v>0.8902</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1275</v>
       </c>
       <c r="B3" t="n">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C3" t="n">
-        <v>1270</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>0.0314</v>
       </c>
       <c r="F3" t="n">
-        <v>3.137254901960784</v>
+        <v>154</v>
       </c>
       <c r="G3" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" t="n">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.298701298701299</v>
+        <v>0.026</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0.987</v>
       </c>
       <c r="O3" t="n">
-        <v>98.05194805194806</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>99.35064935064936</v>
+        <v>0.987</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9805194805194806</v>
+        <v>0.987</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9901639344262295</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>96.62193937716648</v>
+        <v>0.9661999999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>96.04713616055625</v>
+        <v>0.9605</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>324</v>
+      </c>
+      <c r="G4" t="n">
+        <v>292</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1142</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9832</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9932</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9012</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9404</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9510999999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9504</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.7441</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2048</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56</v>
-      </c>
-      <c r="E4" t="n">
-        <v>77</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.494140625</v>
-      </c>
-      <c r="G4" t="n">
-        <v>324</v>
-      </c>
-      <c r="H4" t="n">
-        <v>282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>286</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.876543209876543</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8.641975308641975</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>87.03703703703704</v>
-      </c>
-      <c r="P4" t="n">
-        <v>88.27160493827161</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.941358024691358</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9697933227344993</v>
-      </c>
-      <c r="T4" t="n">
-        <v>95.03532779343597</v>
-      </c>
-      <c r="U4" t="n">
-        <v>74.40705961495033</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>357</v>
+      </c>
+      <c r="B5" t="n">
+        <v>356</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9756</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9524</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9756</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9639</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9877</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.8931</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>357</v>
-      </c>
-      <c r="C5" t="n">
-        <v>356</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="G5" t="n">
-        <v>42</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" t="n">
-        <v>41</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.380952380952381</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95.23809523809523</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97.61904761904762</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9761904761904762</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9879518072289156</v>
-      </c>
-      <c r="T5" t="n">
-        <v>92.85953495812534</v>
-      </c>
-      <c r="U5" t="n">
-        <v>89.31440071693292</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C6" t="n">
+        <v>106</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="F6" t="n">
+        <v>184</v>
+      </c>
+      <c r="G6" t="n">
+        <v>180</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9945000000000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.9836</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.9532</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1263</v>
-      </c>
-      <c r="D6" t="n">
-        <v>106</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.08035062089116</v>
-      </c>
-      <c r="G6" t="n">
-        <v>184</v>
-      </c>
-      <c r="H6" t="n">
-        <v>180</v>
-      </c>
-      <c r="I6" t="n">
-        <v>181</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.717391304347826</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.173913043478261</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>97.82608695652173</v>
-      </c>
-      <c r="P6" t="n">
-        <v>98.36956521739131</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9836956521739131</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9917808219178083</v>
-      </c>
-      <c r="T6" t="n">
-        <v>98.83413262200202</v>
-      </c>
-      <c r="U6" t="n">
-        <v>95.31563424389861</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A7" t="n">
+        <v>755</v>
       </c>
       <c r="B7" t="n">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C7" t="n">
-        <v>754</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>0.0185</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85430463576159</v>
+        <v>104</v>
       </c>
       <c r="G7" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.0192</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>99.03846153846155</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>100</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9951690821256038</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>98.72538929747769</v>
+        <v>0.9873</v>
       </c>
       <c r="U7" t="n">
-        <v>97.54238144468999</v>
+        <v>0.9754</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A8" t="n">
+        <v>1135</v>
       </c>
       <c r="B8" t="n">
-        <v>1135</v>
+        <v>1059</v>
       </c>
       <c r="C8" t="n">
-        <v>1058</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>56</v>
+        <v>0.1154</v>
       </c>
       <c r="F8" t="n">
-        <v>11.71806167400881</v>
+        <v>127</v>
       </c>
       <c r="G8" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H8" t="n">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.362204724409449</v>
+        <v>0.0157</v>
       </c>
       <c r="M8" t="n">
-        <v>2.362204724409449</v>
+        <v>0.0157</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>97.63779527559055</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>97.63779527559055</v>
+        <v>0.9843</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9844961240310077</v>
+        <v>0.9843</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.9921</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9921875</v>
+        <v>0.9921</v>
       </c>
       <c r="T8" t="n">
-        <v>99.55449238256536</v>
+        <v>0.9955000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>91.27072754997815</v>
+        <v>0.9327</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1071</v>
       </c>
       <c r="B9" t="n">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="C9" t="n">
-        <v>1051</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E9" t="n">
-        <v>86</v>
+        <v>0.099</v>
       </c>
       <c r="F9" t="n">
-        <v>9.897292250233427</v>
+        <v>127</v>
       </c>
       <c r="G9" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7874015748031495</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7874015748031495</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>99.21259842519686</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>99.21259842519686</v>
+        <v>0.9921</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.9921</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="T9" t="n">
-        <v>99.33460187383689</v>
+        <v>0.9933</v>
       </c>
       <c r="U9" t="n">
-        <v>94.53257561921188</v>
+        <v>0.9453</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Kosmos/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Kosmos/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="B2" t="n">
-        <v>1052</v>
+        <v>1036</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0493</v>
+        <v>0.0125</v>
       </c>
       <c r="F2" t="n">
         <v>151</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="B3" t="n">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0314</v>
+        <v>0.0064</v>
       </c>
       <c r="F3" t="n">
         <v>154</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2048</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0649</v>
+        <v>0.019</v>
       </c>
       <c r="F4" t="n">
         <v>324</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B5" t="n">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.098</v>
+        <v>0.0058</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1369</v>
+        <v>1256</v>
       </c>
       <c r="B6" t="n">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="C6" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1008</v>
+        <v>0.0151</v>
       </c>
       <c r="F6" t="n">
         <v>184</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B7" t="n">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0185</v>
+        <v>0.0041</v>
       </c>
       <c r="F7" t="n">
         <v>104</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="B8" t="n">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1154</v>
+        <v>0.0143</v>
       </c>
       <c r="F8" t="n">
         <v>127</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="B9" t="n">
-        <v>1051</v>
+        <v>1022</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.099</v>
+        <v>0.002</v>
       </c>
       <c r="F9" t="n">
         <v>127</v>
